--- a/Final/staff_list.xlsx
+++ b/Final/staff_list.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:F2"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -398,35 +398,196 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="1"/>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Moi chan</t>
+          <t>Lê Mạnh Hùng</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Moi_cute@gmail.com</t>
+          <t>hungubbc@gmail.com</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0123654789</t>
+          <t>0969899965</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Bán hàng</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Vũ Công Đạt</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>dat123@gmail.com</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0968656236</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Kế toán</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hoàng Văn Đại</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>daihoang@gmail.com</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0989656314</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Bán hàng</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Nguyễn Ngọc Phúc</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>nguyenngocphuc@gmail.com</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0986954925</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Bán hàng</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Đào Minh Hoàng</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>hoangdao123@gmail.com</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0996994435</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>Giám đốc</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Lê Thị Khánh Huyền</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>khanhhuyen00@gmail.com</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0978256323</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Kế toán</t>
         </is>
       </c>
     </row>

--- a/Final/staff_list.xlsx
+++ b/Final/staff_list.xlsx
@@ -434,59 +434,59 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vũ Công Đạt</t>
+          <t>Hoàng Văn Đại</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>dat123@gmail.com</t>
+          <t>daihoang@gmail.com</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0968656236</t>
+          <t>0989656314</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Kế toán</t>
+          <t>Bán hàng</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hoàng Văn Đại</t>
+          <t>Nguyễn Ngọc Phúc</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>daihoang@gmail.com</t>
+          <t>nguyenngocphuc@gmail.com</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>35</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0989656314</t>
+          <t>0986954925</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -498,49 +498,49 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc Phúc</t>
+          <t>Đào Minh Hoàng</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>nguyenngocphuc@gmail.com</t>
+          <t>hoangdao123@gmail.com</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0986954925</t>
+          <t>0996994435</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Bán hàng</t>
+          <t>Giám đốc</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Đào Minh Hoàng</t>
+          <t>Lê Thị Khánh Huyền</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>hoangdao123@gmail.com</t>
+          <t>khanhhuyen00@gmail.com</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -550,44 +550,44 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0996994435</t>
+          <t>0978256323</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Giám đốc</t>
+          <t>Kế toán</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Lê Thị Khánh Huyền</t>
+          <t>adsbsdg</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>khanhhuyen00@gmail.com</t>
+          <t>abc@gmail.com</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0978256323</t>
+          <t>021321</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Kế toán</t>
+          <t>--- Select a Department ---</t>
         </is>
       </c>
     </row>
